--- a/data/pca/factorExposure/factorExposure_2010-02-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-03.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.006407256029326297</v>
+        <v>0.01723988897047296</v>
       </c>
       <c r="C2">
-        <v>-0.01717721962392427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001039852641857003</v>
+      </c>
+      <c r="D2">
+        <v>0.006887301714460418</v>
+      </c>
+      <c r="E2">
+        <v>0.0005565335911134078</v>
+      </c>
+      <c r="F2">
+        <v>0.00911625563609735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03288454464525204</v>
+        <v>0.09418841211269299</v>
       </c>
       <c r="C4">
-        <v>-0.1240188304113365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.01587193636000989</v>
+      </c>
+      <c r="D4">
+        <v>0.08264844775088973</v>
+      </c>
+      <c r="E4">
+        <v>0.02761075494127075</v>
+      </c>
+      <c r="F4">
+        <v>-0.0308927182588264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04409500664302419</v>
+        <v>0.1565272202139812</v>
       </c>
       <c r="C6">
-        <v>-0.1042723947286733</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.025051218587073</v>
+      </c>
+      <c r="D6">
+        <v>-0.0234274413479761</v>
+      </c>
+      <c r="E6">
+        <v>0.009071661962743869</v>
+      </c>
+      <c r="F6">
+        <v>-0.04672754389093326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.009811627635719519</v>
+        <v>0.06037102597698259</v>
       </c>
       <c r="C7">
-        <v>-0.0752849612321051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0007133135813983018</v>
+      </c>
+      <c r="D7">
+        <v>0.05110773527964423</v>
+      </c>
+      <c r="E7">
+        <v>0.01117535128472254</v>
+      </c>
+      <c r="F7">
+        <v>-0.04242134362156367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.006064273852317986</v>
+        <v>0.0586206825735263</v>
       </c>
       <c r="C8">
-        <v>-0.05550877185702765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0133579046333494</v>
+      </c>
+      <c r="D8">
+        <v>0.03170783121562207</v>
+      </c>
+      <c r="E8">
+        <v>0.0166099860522328</v>
+      </c>
+      <c r="F8">
+        <v>0.02758392065202394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.02844768336658273</v>
+        <v>0.07174870413059838</v>
       </c>
       <c r="C9">
-        <v>-0.09697827415698604</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01174675538392375</v>
+      </c>
+      <c r="D9">
+        <v>0.08460872462427296</v>
+      </c>
+      <c r="E9">
+        <v>0.02231764007553512</v>
+      </c>
+      <c r="F9">
+        <v>-0.04664155712301087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.006231410672564166</v>
+        <v>0.09476551789660666</v>
       </c>
       <c r="C10">
-        <v>-0.03658009757360099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01833941057468879</v>
+      </c>
+      <c r="D10">
+        <v>-0.170580603777554</v>
+      </c>
+      <c r="E10">
+        <v>-0.03887602424607595</v>
+      </c>
+      <c r="F10">
+        <v>0.0574020303336843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03131567508286793</v>
+        <v>0.08797641419559003</v>
       </c>
       <c r="C11">
-        <v>-0.1070484003240608</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01136333398511505</v>
+      </c>
+      <c r="D11">
+        <v>0.1168909091599835</v>
+      </c>
+      <c r="E11">
+        <v>0.04665713078832925</v>
+      </c>
+      <c r="F11">
+        <v>-0.01999735273896317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02818213626740742</v>
+        <v>0.09237042887203899</v>
       </c>
       <c r="C12">
-        <v>-0.1140887028095473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008804129097242418</v>
+      </c>
+      <c r="D12">
+        <v>0.1294049242392754</v>
+      </c>
+      <c r="E12">
+        <v>0.04732299246576653</v>
+      </c>
+      <c r="F12">
+        <v>-0.02300424656203443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.008052747167410884</v>
+        <v>0.04293256363564492</v>
       </c>
       <c r="C13">
-        <v>-0.03917763855665278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.00410834924682587</v>
+      </c>
+      <c r="D13">
+        <v>0.0484199367716503</v>
+      </c>
+      <c r="E13">
+        <v>-0.0114958126540013</v>
+      </c>
+      <c r="F13">
+        <v>-0.003172028675330558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01527106245099896</v>
+        <v>0.02229500228703941</v>
       </c>
       <c r="C14">
-        <v>-0.02570292972452878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01416104076587898</v>
+      </c>
+      <c r="D14">
+        <v>0.03343614703973149</v>
+      </c>
+      <c r="E14">
+        <v>0.01693531893849878</v>
+      </c>
+      <c r="F14">
+        <v>-0.01375905692798586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01205311544068593</v>
+        <v>0.03137792374143632</v>
       </c>
       <c r="C15">
-        <v>-0.02713511833046706</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.00527135130275889</v>
+      </c>
+      <c r="D15">
+        <v>0.04473597643790184</v>
+      </c>
+      <c r="E15">
+        <v>0.006878968351637482</v>
+      </c>
+      <c r="F15">
+        <v>-0.02201275010156732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.01930941549069327</v>
+        <v>0.07326409023551748</v>
       </c>
       <c r="C16">
-        <v>-0.1143946609739128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002321074598596248</v>
+      </c>
+      <c r="D16">
+        <v>0.1265265848457256</v>
+      </c>
+      <c r="E16">
+        <v>0.06247034251655625</v>
+      </c>
+      <c r="F16">
+        <v>-0.02332515805452833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02677557874100823</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.003533425734171524</v>
+      </c>
+      <c r="D18">
+        <v>0.02065839402681413</v>
+      </c>
+      <c r="E18">
+        <v>-0.005500690563693257</v>
+      </c>
+      <c r="F18">
+        <v>0.009850831002544908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01460741495172276</v>
+        <v>0.05991920922285929</v>
       </c>
       <c r="C20">
-        <v>-0.06573324311456714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0006688828075352827</v>
+      </c>
+      <c r="D20">
+        <v>0.07705095656004385</v>
+      </c>
+      <c r="E20">
+        <v>0.05559553423345755</v>
+      </c>
+      <c r="F20">
+        <v>-0.02126689879573775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01102419648969044</v>
+        <v>0.03900472230322966</v>
       </c>
       <c r="C21">
-        <v>-0.02384863838384564</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.00657405274732068</v>
+      </c>
+      <c r="D21">
+        <v>0.03684571582252753</v>
+      </c>
+      <c r="E21">
+        <v>-0.006096452318655078</v>
+      </c>
+      <c r="F21">
+        <v>0.02699308081956191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.002185317504864223</v>
+        <v>0.04518340689822727</v>
       </c>
       <c r="C22">
-        <v>-0.03658145454537791</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0007646519409592265</v>
+      </c>
+      <c r="D22">
+        <v>0.002735421073638229</v>
+      </c>
+      <c r="E22">
+        <v>0.02880311476389557</v>
+      </c>
+      <c r="F22">
+        <v>0.03169650159365646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.002199992434760344</v>
+        <v>0.04519036969838418</v>
       </c>
       <c r="C23">
-        <v>-0.03661696435906883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0007803136899787096</v>
+      </c>
+      <c r="D23">
+        <v>0.002872031973957067</v>
+      </c>
+      <c r="E23">
+        <v>0.02911869389943893</v>
+      </c>
+      <c r="F23">
+        <v>0.0312218052109379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0209900988905311</v>
+        <v>0.07971095015888112</v>
       </c>
       <c r="C24">
-        <v>-0.1112488051354851</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002996173370366825</v>
+      </c>
+      <c r="D24">
+        <v>0.1204906046369614</v>
+      </c>
+      <c r="E24">
+        <v>0.05055461933360709</v>
+      </c>
+      <c r="F24">
+        <v>-0.02364518715017846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0258281827511772</v>
+        <v>0.08512084854587143</v>
       </c>
       <c r="C25">
-        <v>-0.1176145008548341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.005168530248667598</v>
+      </c>
+      <c r="D25">
+        <v>0.1094876154456689</v>
+      </c>
+      <c r="E25">
+        <v>0.03302999630317303</v>
+      </c>
+      <c r="F25">
+        <v>-0.02534230577224426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02370994586284211</v>
+        <v>0.05609824935222178</v>
       </c>
       <c r="C26">
-        <v>-0.04803425056718306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01456110843614254</v>
+      </c>
+      <c r="D26">
+        <v>0.04173172284866266</v>
+      </c>
+      <c r="E26">
+        <v>0.02721232109579885</v>
+      </c>
+      <c r="F26">
+        <v>0.01196490497720692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1228,199 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.006119928155195577</v>
+        <v>0.1416908632321706</v>
       </c>
       <c r="C28">
-        <v>-0.02459124029115549</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01769249641602805</v>
+      </c>
+      <c r="D28">
+        <v>-0.2639952435521434</v>
+      </c>
+      <c r="E28">
+        <v>-0.07042884664952055</v>
+      </c>
+      <c r="F28">
+        <v>-0.007616308842802662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01580794509429249</v>
+        <v>0.02663836090607496</v>
       </c>
       <c r="C29">
-        <v>-0.02896374742859146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.008256783418679008</v>
+      </c>
+      <c r="D29">
+        <v>0.03306693318344807</v>
+      </c>
+      <c r="E29">
+        <v>0.01096379925411825</v>
+      </c>
+      <c r="F29">
+        <v>0.01117041198104894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.02166280913039036</v>
+        <v>0.06152235723008603</v>
       </c>
       <c r="C30">
-        <v>-0.1245625611710571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004615999609746431</v>
+      </c>
+      <c r="D30">
+        <v>0.08666509192945777</v>
+      </c>
+      <c r="E30">
+        <v>0.02066463854663974</v>
+      </c>
+      <c r="F30">
+        <v>-0.08148508468477424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02493128270793091</v>
+        <v>0.04935251953569632</v>
       </c>
       <c r="C31">
-        <v>-0.03416201819249626</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01522177496036609</v>
+      </c>
+      <c r="D31">
+        <v>0.02529201173818942</v>
+      </c>
+      <c r="E31">
+        <v>0.02728058714584469</v>
+      </c>
+      <c r="F31">
+        <v>0.003315294034186532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.01094272007975054</v>
+        <v>0.04925789955792536</v>
       </c>
       <c r="C32">
-        <v>-0.06051625767180622</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001180856380375329</v>
+      </c>
+      <c r="D32">
+        <v>0.03643830744356397</v>
+      </c>
+      <c r="E32">
+        <v>0.03055762157620068</v>
+      </c>
+      <c r="F32">
+        <v>-0.001087584506051966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02709036262830689</v>
+        <v>0.0896557245235618</v>
       </c>
       <c r="C33">
-        <v>-0.1158721097104016</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008540550565253201</v>
+      </c>
+      <c r="D33">
+        <v>0.09822001456085266</v>
+      </c>
+      <c r="E33">
+        <v>0.04531589430227135</v>
+      </c>
+      <c r="F33">
+        <v>-0.0335477626034064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.030543575097126</v>
+        <v>0.06821779556456141</v>
       </c>
       <c r="C34">
-        <v>-0.09631837678251795</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01168380691302263</v>
+      </c>
+      <c r="D34">
+        <v>0.1059419992116029</v>
+      </c>
+      <c r="E34">
+        <v>0.03473841760973507</v>
+      </c>
+      <c r="F34">
+        <v>-0.03221556325896905</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003223762859949351</v>
+        <v>0.02433501994686189</v>
       </c>
       <c r="C35">
-        <v>-0.01486152370712854</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002428693673791243</v>
+      </c>
+      <c r="D35">
+        <v>0.01259672492289318</v>
+      </c>
+      <c r="E35">
+        <v>0.01153110054283716</v>
+      </c>
+      <c r="F35">
+        <v>-0.001214742462825076</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01194383740909132</v>
+        <v>0.02526222015102</v>
       </c>
       <c r="C36">
-        <v>-0.02888262145536217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007410282939624351</v>
+      </c>
+      <c r="D36">
+        <v>0.03973231404238725</v>
+      </c>
+      <c r="E36">
+        <v>0.01569452951039549</v>
+      </c>
+      <c r="F36">
+        <v>-0.01409470421122255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1428,99 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0008501615958262588</v>
+        <v>0.001576122985155247</v>
       </c>
       <c r="C38">
-        <v>-0.005582999588181356</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0002509511683114886</v>
+      </c>
+      <c r="D38">
+        <v>0.0004995229763123251</v>
+      </c>
+      <c r="E38">
+        <v>0.001029165368964326</v>
+      </c>
+      <c r="F38">
+        <v>0.0006232717876794764</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04494462363861831</v>
+        <v>0.1069325788096675</v>
       </c>
       <c r="C39">
-        <v>-0.1716335269806693</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01691046597296373</v>
+      </c>
+      <c r="D39">
+        <v>0.1533181871222568</v>
+      </c>
+      <c r="E39">
+        <v>0.05909835992319978</v>
+      </c>
+      <c r="F39">
+        <v>-0.02885507287998528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009833573569162847</v>
+        <v>0.03930904439440694</v>
       </c>
       <c r="C40">
-        <v>-0.01396365968257597</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007504918015531562</v>
+      </c>
+      <c r="D40">
+        <v>0.03201046042081811</v>
+      </c>
+      <c r="E40">
+        <v>0.002902642827757603</v>
+      </c>
+      <c r="F40">
+        <v>0.01733270535512921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01434333543882193</v>
+        <v>0.02659949879388966</v>
       </c>
       <c r="C41">
-        <v>-0.02124860747900479</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.006649047650270643</v>
+      </c>
+      <c r="D41">
+        <v>0.01141056226122164</v>
+      </c>
+      <c r="E41">
+        <v>0.0128356086309978</v>
+      </c>
+      <c r="F41">
+        <v>0.006501332754146372</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01271566339112766</v>
+        <v>0.04013948696222402</v>
       </c>
       <c r="C43">
-        <v>-0.02557487395161852</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006731515707768132</v>
+      </c>
+      <c r="D43">
+        <v>0.02074900811281611</v>
+      </c>
+      <c r="E43">
+        <v>0.02438522018011452</v>
+      </c>
+      <c r="F43">
+        <v>0.01192754641764541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03567019190899767</v>
+        <v>0.076884227314436</v>
       </c>
       <c r="C44">
-        <v>-0.1328366638461352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.02123417025060919</v>
+      </c>
+      <c r="D44">
+        <v>0.09748341976952096</v>
+      </c>
+      <c r="E44">
+        <v>0.06656058283284084</v>
+      </c>
+      <c r="F44">
+        <v>-0.1512971647632654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.004740111363553371</v>
+        <v>0.02394588353133992</v>
       </c>
       <c r="C46">
-        <v>-0.0112788012363835</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003813967978062823</v>
+      </c>
+      <c r="D46">
+        <v>0.01238051332151912</v>
+      </c>
+      <c r="E46">
+        <v>0.02205888584726827</v>
+      </c>
+      <c r="F46">
+        <v>0.003379867055397617</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01577154846836446</v>
+        <v>0.05076167151220813</v>
       </c>
       <c r="C47">
-        <v>-0.04140681205562821</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003474542676229995</v>
+      </c>
+      <c r="D47">
+        <v>0.01310263283883564</v>
+      </c>
+      <c r="E47">
+        <v>0.02302760446623308</v>
+      </c>
+      <c r="F47">
+        <v>0.03373359007529814</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0144367812479126</v>
+        <v>0.04828551529921316</v>
       </c>
       <c r="C48">
-        <v>-0.04685103646576582</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002600096073855297</v>
+      </c>
+      <c r="D48">
+        <v>0.05094751880084056</v>
+      </c>
+      <c r="E48">
+        <v>-0.005958195925356936</v>
+      </c>
+      <c r="F48">
+        <v>-0.008315231750301274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.0434974368165921</v>
+        <v>0.2026653409643748</v>
       </c>
       <c r="C49">
-        <v>-0.2032810801337704</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.01837458229077489</v>
+      </c>
+      <c r="D49">
+        <v>-0.01317631100754141</v>
+      </c>
+      <c r="E49">
+        <v>0.03024710549427353</v>
+      </c>
+      <c r="F49">
+        <v>-0.03570486144995631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.02053958650758948</v>
+        <v>0.04941325044414456</v>
       </c>
       <c r="C50">
-        <v>-0.04161230153605076</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01124242765857443</v>
+      </c>
+      <c r="D50">
+        <v>0.02459313692050472</v>
+      </c>
+      <c r="E50">
+        <v>0.02919495307527206</v>
+      </c>
+      <c r="F50">
+        <v>-0.00757709747328829</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0009829874872503909</v>
+        <v>0.001901045210382966</v>
       </c>
       <c r="C51">
-        <v>-0.005883171933689739</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0005026971136778921</v>
+      </c>
+      <c r="D51">
+        <v>-0.00199386836206163</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001767976753393935</v>
+      </c>
+      <c r="F51">
+        <v>-0.003991309317149546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03468054117745922</v>
+        <v>0.1457379827408895</v>
       </c>
       <c r="C52">
-        <v>-0.1428473007341161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01471270956373033</v>
+      </c>
+      <c r="D52">
+        <v>0.04718808529765265</v>
+      </c>
+      <c r="E52">
+        <v>0.02121817865649304</v>
+      </c>
+      <c r="F52">
+        <v>-0.04355361085043648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03446598277300283</v>
+        <v>0.1738072861995166</v>
       </c>
       <c r="C53">
-        <v>-0.1566611626532725</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01786359856095267</v>
+      </c>
+      <c r="D53">
+        <v>0.005834570305747465</v>
+      </c>
+      <c r="E53">
+        <v>0.03096776774135109</v>
+      </c>
+      <c r="F53">
+        <v>-0.07441427811347666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01424993087764357</v>
+        <v>0.02176599319868669</v>
       </c>
       <c r="C54">
-        <v>-0.04809995050964178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01247965787635955</v>
+      </c>
+      <c r="D54">
+        <v>0.03359802747994158</v>
+      </c>
+      <c r="E54">
+        <v>0.01625274292931226</v>
+      </c>
+      <c r="F54">
+        <v>0.002449366789892288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02635083537203932</v>
+        <v>0.1142591371400761</v>
       </c>
       <c r="C55">
-        <v>-0.0888208416695621</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01604383720700513</v>
+      </c>
+      <c r="D55">
+        <v>0.009992195889336024</v>
+      </c>
+      <c r="E55">
+        <v>0.02835158129279109</v>
+      </c>
+      <c r="F55">
+        <v>-0.04803830196892434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.0380188499453233</v>
+        <v>0.178137518335149</v>
       </c>
       <c r="C56">
-        <v>-0.157942130882185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01524230541518838</v>
+      </c>
+      <c r="D56">
+        <v>0.002743251283813683</v>
+      </c>
+      <c r="E56">
+        <v>0.03753226066791029</v>
+      </c>
+      <c r="F56">
+        <v>-0.05494911709811333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01506751708152028</v>
+        <v>0.04654023331998487</v>
       </c>
       <c r="C58">
-        <v>-0.04413517779183797</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001248260287811646</v>
+      </c>
+      <c r="D58">
+        <v>0.06744184733544294</v>
+      </c>
+      <c r="E58">
+        <v>0.02717795285746726</v>
+      </c>
+      <c r="F58">
+        <v>0.03915355268942194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.0145973045859645</v>
+        <v>0.170592127117912</v>
       </c>
       <c r="C59">
-        <v>-0.08557261438380134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01830381803163092</v>
+      </c>
+      <c r="D59">
+        <v>-0.2208398160304501</v>
+      </c>
+      <c r="E59">
+        <v>-0.04659297899732859</v>
+      </c>
+      <c r="F59">
+        <v>0.03178906622703712</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.04009218863131002</v>
+        <v>0.2342735495311725</v>
       </c>
       <c r="C60">
-        <v>-0.2753778020087666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.003294303977510227</v>
+      </c>
+      <c r="D60">
+        <v>0.04000233531393836</v>
+      </c>
+      <c r="E60">
+        <v>0.01155267328377045</v>
+      </c>
+      <c r="F60">
+        <v>0.002527471352969991</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03230876294067301</v>
+        <v>0.08279371402825954</v>
       </c>
       <c r="C61">
-        <v>-0.128620869459521</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01266692767397683</v>
+      </c>
+      <c r="D61">
+        <v>0.1166661512215863</v>
+      </c>
+      <c r="E61">
+        <v>0.03974475409216672</v>
+      </c>
+      <c r="F61">
+        <v>-0.01252772346975367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.04109898838172828</v>
+        <v>0.169963616362048</v>
       </c>
       <c r="C62">
-        <v>-0.1669849606287783</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.01893025908760559</v>
+      </c>
+      <c r="D62">
+        <v>0.008639253215892276</v>
+      </c>
+      <c r="E62">
+        <v>0.03532272904189154</v>
+      </c>
+      <c r="F62">
+        <v>-0.03732937795425595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01335252745548552</v>
+        <v>0.04304859874408619</v>
       </c>
       <c r="C63">
-        <v>-0.05619189768189314</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002505848103904486</v>
+      </c>
+      <c r="D63">
+        <v>0.05781395599541311</v>
+      </c>
+      <c r="E63">
+        <v>0.02060237962472821</v>
+      </c>
+      <c r="F63">
+        <v>-0.004292230383766913</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02568513435606601</v>
+        <v>0.1105720882857381</v>
       </c>
       <c r="C64">
-        <v>-0.1001053969226808</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01162709593086889</v>
+      </c>
+      <c r="D64">
+        <v>0.04171827463933691</v>
+      </c>
+      <c r="E64">
+        <v>0.0211197213757044</v>
+      </c>
+      <c r="F64">
+        <v>-0.0258830974754701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.04548651237176642</v>
+        <v>0.1471134101119889</v>
       </c>
       <c r="C65">
-        <v>-0.1036658033925145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03173085326059847</v>
+      </c>
+      <c r="D65">
+        <v>-0.04210281295729731</v>
+      </c>
+      <c r="E65">
+        <v>0.0001021270178151947</v>
+      </c>
+      <c r="F65">
+        <v>-0.03826439375482171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04443974896510359</v>
+        <v>0.1278747854215098</v>
       </c>
       <c r="C66">
-        <v>-0.2035661662592482</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01479493968505666</v>
+      </c>
+      <c r="D66">
+        <v>0.1417579474944483</v>
+      </c>
+      <c r="E66">
+        <v>0.06690942722685264</v>
+      </c>
+      <c r="F66">
+        <v>-0.03110623173034915</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01627055293849853</v>
+        <v>0.06327911823819635</v>
       </c>
       <c r="C67">
-        <v>-0.06901182536529217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003095554332438901</v>
+      </c>
+      <c r="D67">
+        <v>0.05574904315524643</v>
+      </c>
+      <c r="E67">
+        <v>0.0180773537197908</v>
+      </c>
+      <c r="F67">
+        <v>0.03218556947064899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01681006184152233</v>
+        <v>0.1163543140838915</v>
       </c>
       <c r="C68">
-        <v>-0.02412997401726084</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02766984013089347</v>
+      </c>
+      <c r="D68">
+        <v>-0.2594829170241246</v>
+      </c>
+      <c r="E68">
+        <v>-0.08735957616229663</v>
+      </c>
+      <c r="F68">
+        <v>-0.004928327982857591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.009767100992266171</v>
+        <v>0.03918583478400968</v>
       </c>
       <c r="C69">
-        <v>-0.03233539914341527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.001102410275288628</v>
+      </c>
+      <c r="D69">
+        <v>0.007947388115405346</v>
+      </c>
+      <c r="E69">
+        <v>0.02349021890435901</v>
+      </c>
+      <c r="F69">
+        <v>0.001075775605666632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0002171184927076357</v>
+        <v>0.06253278210819266</v>
       </c>
       <c r="C70">
-        <v>-0.03471402540444501</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02881625897303208</v>
+      </c>
+      <c r="D70">
+        <v>0.02954379832952692</v>
+      </c>
+      <c r="E70">
+        <v>-0.04236884567501452</v>
+      </c>
+      <c r="F70">
+        <v>0.1885812735412249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02112241222202289</v>
+        <v>0.1355625900614499</v>
       </c>
       <c r="C71">
-        <v>-0.02895538859201273</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03241975271826548</v>
+      </c>
+      <c r="D71">
+        <v>-0.2732864663540358</v>
+      </c>
+      <c r="E71">
+        <v>-0.09683678468360303</v>
+      </c>
+      <c r="F71">
+        <v>-0.01096650306226735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03901729333515224</v>
+        <v>0.1414465124136086</v>
       </c>
       <c r="C72">
-        <v>-0.116563429257374</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02544545644568915</v>
+      </c>
+      <c r="D72">
+        <v>0.0006095111655505268</v>
+      </c>
+      <c r="E72">
+        <v>0.03974234015480536</v>
+      </c>
+      <c r="F72">
+        <v>-0.03486666449705798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.04303702801185459</v>
+        <v>0.20125375988831</v>
       </c>
       <c r="C73">
-        <v>-0.20675121067087</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01257393460846213</v>
+      </c>
+      <c r="D73">
+        <v>0.01400153689601499</v>
+      </c>
+      <c r="E73">
+        <v>0.06434765613704051</v>
+      </c>
+      <c r="F73">
+        <v>-0.03811465085134792</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02509365604441628</v>
+        <v>0.09491407022883784</v>
       </c>
       <c r="C74">
-        <v>-0.1156778776375679</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01279711893846983</v>
+      </c>
+      <c r="D74">
+        <v>0.01833405556583884</v>
+      </c>
+      <c r="E74">
+        <v>0.04544228590591468</v>
+      </c>
+      <c r="F74">
+        <v>-0.05699684424581181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04706624331021103</v>
+        <v>0.129049670968863</v>
       </c>
       <c r="C75">
-        <v>-0.1342061197009342</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02727400919908201</v>
+      </c>
+      <c r="D75">
+        <v>0.03068417037975343</v>
+      </c>
+      <c r="E75">
+        <v>0.05895359603274989</v>
+      </c>
+      <c r="F75">
+        <v>-0.01995209025117099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.000928314761505637</v>
+        <v>0.001910767787920253</v>
       </c>
       <c r="C76">
-        <v>-0.006734366275825358</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0005190383576611453</v>
+      </c>
+      <c r="D76">
+        <v>-0.001371988575211058</v>
+      </c>
+      <c r="E76">
+        <v>0.0001761392560768716</v>
+      </c>
+      <c r="F76">
+        <v>-0.003167778378745853</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.02512086145346413</v>
+        <v>0.07990872671703002</v>
       </c>
       <c r="C77">
-        <v>-0.1063233422089194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008621257414467299</v>
+      </c>
+      <c r="D77">
+        <v>0.1192910554413386</v>
+      </c>
+      <c r="E77">
+        <v>0.04316230360209855</v>
+      </c>
+      <c r="F77">
+        <v>-0.02871695970496146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.06210773868013651</v>
+        <v>0.1022257620448651</v>
       </c>
       <c r="C78">
-        <v>-0.1176229549883367</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03986434860057832</v>
+      </c>
+      <c r="D78">
+        <v>0.1162304080704097</v>
+      </c>
+      <c r="E78">
+        <v>0.07904604386777976</v>
+      </c>
+      <c r="F78">
+        <v>-0.04897227959403117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.04149178980358879</v>
+        <v>0.1646278673111571</v>
       </c>
       <c r="C79">
-        <v>-0.1443861976345694</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02138494072782325</v>
+      </c>
+      <c r="D79">
+        <v>0.01742988559116781</v>
+      </c>
+      <c r="E79">
+        <v>0.04807916690645489</v>
+      </c>
+      <c r="F79">
+        <v>-0.01430148662079683</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.005200028796128265</v>
+        <v>0.08115884470387758</v>
       </c>
       <c r="C80">
-        <v>-0.09618514086146016</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.000690562347383721</v>
+      </c>
+      <c r="D80">
+        <v>0.0569630814573058</v>
+      </c>
+      <c r="E80">
+        <v>0.0369256406329684</v>
+      </c>
+      <c r="F80">
+        <v>0.02664432008537247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04699599807222756</v>
+        <v>0.1230821219131197</v>
       </c>
       <c r="C81">
-        <v>-0.1538222387268281</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03123184954842998</v>
+      </c>
+      <c r="D81">
+        <v>0.01614525275880817</v>
+      </c>
+      <c r="E81">
+        <v>0.05886571228558091</v>
+      </c>
+      <c r="F81">
+        <v>-0.01857698798451354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.04083034208301592</v>
+        <v>0.1652542928097899</v>
       </c>
       <c r="C82">
-        <v>-0.1708839572218469</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.02361779650121842</v>
+      </c>
+      <c r="D82">
+        <v>0.005511490016892795</v>
+      </c>
+      <c r="E82">
+        <v>0.02897231800756352</v>
+      </c>
+      <c r="F82">
+        <v>-0.0795430230290998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.01737781870265794</v>
+        <v>0.06111170335235802</v>
       </c>
       <c r="C83">
-        <v>-0.07821795511643528</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003300478597650508</v>
+      </c>
+      <c r="D83">
+        <v>0.05003486364561923</v>
+      </c>
+      <c r="E83">
+        <v>0.006198558208135635</v>
+      </c>
+      <c r="F83">
+        <v>0.03284401402527426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02490203479972534</v>
+        <v>0.05865188856387447</v>
       </c>
       <c r="C84">
-        <v>-0.07644899441025653</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01105299719103933</v>
+      </c>
+      <c r="D84">
+        <v>0.06569108288915487</v>
+      </c>
+      <c r="E84">
+        <v>0.007185452462024688</v>
+      </c>
+      <c r="F84">
+        <v>-0.007243273682758663</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.04088599382123784</v>
+        <v>0.1380659425194068</v>
       </c>
       <c r="C85">
-        <v>-0.1195008559896896</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.0270837126692014</v>
+      </c>
+      <c r="D85">
+        <v>0.01128230413282635</v>
+      </c>
+      <c r="E85">
+        <v>0.03905573435924051</v>
+      </c>
+      <c r="F85">
+        <v>-0.04748053949652219</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.02009658461661645</v>
+        <v>0.09559600426501472</v>
       </c>
       <c r="C86">
-        <v>-0.1100443464614129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006862707600079567</v>
+      </c>
+      <c r="D86">
+        <v>0.04067926401542232</v>
+      </c>
+      <c r="E86">
+        <v>0.2102858281758895</v>
+      </c>
+      <c r="F86">
+        <v>0.9086901800577308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04565403737592059</v>
+        <v>0.09564540083981932</v>
       </c>
       <c r="C87">
-        <v>-0.1089673390836806</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02180955100506836</v>
+      </c>
+      <c r="D87">
+        <v>0.09225769974645066</v>
+      </c>
+      <c r="E87">
+        <v>-0.05315518635029902</v>
+      </c>
+      <c r="F87">
+        <v>-0.05408442940949566</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0151919165029256</v>
+        <v>0.06093030739987437</v>
       </c>
       <c r="C88">
-        <v>-0.05861033275732233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002534677962639492</v>
+      </c>
+      <c r="D88">
+        <v>0.05063020296314032</v>
+      </c>
+      <c r="E88">
+        <v>0.02511896336389385</v>
+      </c>
+      <c r="F88">
+        <v>-0.01408669050691359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.00219107052213309</v>
+        <v>0.1337528781769474</v>
       </c>
       <c r="C89">
-        <v>-0.05308435586611724</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.009808813885058491</v>
+      </c>
+      <c r="D89">
+        <v>-0.2507608925463887</v>
+      </c>
+      <c r="E89">
+        <v>-0.08928424979391206</v>
+      </c>
+      <c r="F89">
+        <v>0.005118748204897444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.02089191865487387</v>
+        <v>0.1477215970737936</v>
       </c>
       <c r="C90">
-        <v>-0.03240609997168481</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02821025126998004</v>
+      </c>
+      <c r="D90">
+        <v>-0.2657669316242506</v>
+      </c>
+      <c r="E90">
+        <v>-0.1109550530426753</v>
+      </c>
+      <c r="F90">
+        <v>0.003026346450200009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.0243473039880116</v>
+        <v>0.1195818571717592</v>
       </c>
       <c r="C91">
-        <v>-0.09254222340095235</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01773650518966052</v>
+      </c>
+      <c r="D91">
+        <v>-0.01090711422308065</v>
+      </c>
+      <c r="E91">
+        <v>0.05686318526307597</v>
+      </c>
+      <c r="F91">
+        <v>0.001600121695133727</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.001886180368800673</v>
+        <v>0.1473536520241363</v>
       </c>
       <c r="C92">
-        <v>-0.05080702177742454</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.0202846163676388</v>
+      </c>
+      <c r="D92">
+        <v>-0.2909243566900043</v>
+      </c>
+      <c r="E92">
+        <v>-0.1016886271214157</v>
+      </c>
+      <c r="F92">
+        <v>0.01534899652689482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01567695681395632</v>
+        <v>0.1508466393269707</v>
       </c>
       <c r="C93">
-        <v>-0.0362962328913725</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02428288322863131</v>
+      </c>
+      <c r="D93">
+        <v>-0.2658991527759567</v>
+      </c>
+      <c r="E93">
+        <v>-0.07819589088522057</v>
+      </c>
+      <c r="F93">
+        <v>-0.003319568169659292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04891396048541134</v>
+        <v>0.1321587178626305</v>
       </c>
       <c r="C94">
-        <v>-0.1584813759538119</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.0243051956359309</v>
+      </c>
+      <c r="D94">
+        <v>0.04363875968870998</v>
+      </c>
+      <c r="E94">
+        <v>0.05846121991406587</v>
+      </c>
+      <c r="F94">
+        <v>-0.03689962812815865</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.04002019496852524</v>
+        <v>0.1257150691282642</v>
       </c>
       <c r="C95">
-        <v>-0.1334494359944152</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004751385432658451</v>
+      </c>
+      <c r="D95">
+        <v>0.09240762875295967</v>
+      </c>
+      <c r="E95">
+        <v>0.04805104382947466</v>
+      </c>
+      <c r="F95">
+        <v>0.00968188117058582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9681201705101439</v>
+        <v>0.1021857826931305</v>
       </c>
       <c r="C96">
-        <v>-0.2328770183313264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.988315112626812</v>
+      </c>
+      <c r="D96">
+        <v>-0.03721174369307878</v>
+      </c>
+      <c r="E96">
+        <v>0.05635778930222931</v>
+      </c>
+      <c r="F96">
+        <v>-0.04348615148370572</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.01913044486606381</v>
+        <v>0.1907638553143959</v>
       </c>
       <c r="C97">
-        <v>-0.1688814619100562</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.00920461539460868</v>
+      </c>
+      <c r="D97">
+        <v>-0.01742579760522148</v>
+      </c>
+      <c r="E97">
+        <v>0.01389063155427656</v>
+      </c>
+      <c r="F97">
+        <v>0.09596618906999294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03409270223289628</v>
+        <v>0.2059236568666511</v>
       </c>
       <c r="C98">
-        <v>-0.1969222550893069</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.007625333152182278</v>
+      </c>
+      <c r="D98">
+        <v>0.006223224836130483</v>
+      </c>
+      <c r="E98">
+        <v>-0.08775323887171166</v>
+      </c>
+      <c r="F98">
+        <v>0.09190328045117808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.003687267309938076</v>
+        <v>0.05575538047331442</v>
       </c>
       <c r="C99">
-        <v>-0.0571190670231023</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004481469770992104</v>
+      </c>
+      <c r="D99">
+        <v>0.03836125084980331</v>
+      </c>
+      <c r="E99">
+        <v>0.02360454262481959</v>
+      </c>
+      <c r="F99">
+        <v>-0.0001579696864690586</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.004410137425354885</v>
+        <v>0.1252616878065543</v>
       </c>
       <c r="C100">
-        <v>-0.1357397167413566</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05255899931683082</v>
+      </c>
+      <c r="D100">
+        <v>0.3494705666974202</v>
+      </c>
+      <c r="E100">
+        <v>-0.8874328915588537</v>
+      </c>
+      <c r="F100">
+        <v>0.1359426178897371</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01583876858328522</v>
+        <v>0.02655945501834143</v>
       </c>
       <c r="C101">
-        <v>-0.02892902937019046</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.008263731945662302</v>
+      </c>
+      <c r="D101">
+        <v>0.03277469771881339</v>
+      </c>
+      <c r="E101">
+        <v>0.01040434397390444</v>
+      </c>
+      <c r="F101">
+        <v>0.01241829471931659</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
